--- a/submission.xlsx
+++ b/submission.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A8611358-C48B-CC4F-8D22-959DEF2F4508}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="4680" windowWidth="17860" windowHeight="9280" tabRatio="500"/>
+    <workbookView xWindow="30300" yWindow="4860" windowWidth="17860" windowHeight="9280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -32,12 +38,19 @@
     <t>Publis LB</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>606-2.csv.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>606-3.csv.gz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +95,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -406,14 +427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="C1" t="s">
@@ -432,6 +453,28 @@
       </c>
       <c r="D2">
         <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0.78561538714172796</v>
+      </c>
+      <c r="D3">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.78627288186660904</v>
+      </c>
+      <c r="D4">
+        <v>0.78500000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A8611358-C48B-CC4F-8D22-959DEF2F4508}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30300" yWindow="4860" windowWidth="17860" windowHeight="9280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22400" yWindow="6300" windowWidth="17860" windowHeight="9280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -44,13 +38,29 @@
   </si>
   <si>
     <t>606-3.csv.gz</t>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add 302</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>606-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add 502</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,24 +437,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="2:4">
+    <row r="1" spans="2:5">
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +468,7 @@
         <v>0.76700000000000002</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -466,7 +479,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -475,10 +488,48 @@
       </c>
       <c r="D4">
         <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.78747909273584005</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -48,11 +48,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>add 502</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>606-4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>add 502</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -441,7 +441,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -495,13 +495,13 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>0.78747909273584005</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="22400" yWindow="6300" windowWidth="17860" windowHeight="9280" tabRatio="500"/>
+    <workbookView xWindow="15720" yWindow="14200" windowWidth="17860" windowHeight="9280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -53,6 +53,14 @@
   </si>
   <si>
     <t>606-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>607-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add 503~5</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -438,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -502,6 +510,14 @@
       </c>
       <c r="E5" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{92B0F778-6827-2941-893F-D0B14236437E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15720" yWindow="14200" windowWidth="17860" windowHeight="9280" tabRatio="500"/>
+    <workbookView xWindow="30920" yWindow="14140" windowWidth="17860" windowHeight="9280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -67,8 +73,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,14 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="C1" t="s">
@@ -515,6 +521,9 @@
     <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.78793562369721304</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{92B0F778-6827-2941-893F-D0B14236437E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{81B3F5B8-7F63-854E-B076-893D50A31DB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30920" yWindow="14140" windowWidth="17860" windowHeight="9280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54080" yWindow="4900" windowWidth="17860" windowHeight="9280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,13 @@
   </si>
   <si>
     <t>add 503~5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>607-2</t>
+  </si>
+  <si>
+    <t>add 202~204</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -452,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
@@ -527,6 +534,17 @@
       </c>
       <c r="E6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>0.78868112532899204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{81B3F5B8-7F63-854E-B076-893D50A31DB5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A6FEE26-625D-C94B-BA9F-A23E28F40086}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54080" yWindow="4900" windowWidth="17860" windowHeight="9280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75840" yWindow="3940" windowWidth="22200" windowHeight="9800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -66,14 +66,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>add 503~5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>607-2</t>
   </si>
   <si>
     <t>add 202~204</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>607-3</t>
+  </si>
+  <si>
+    <t>607-4</t>
+  </si>
+  <si>
+    <t>ins diff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add 303`304</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add 503~505</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -81,7 +95,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="183" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,6 +109,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -115,13 +140,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,16 +489,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="12.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -482,7 +515,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>0.77103741297029604</v>
       </c>
       <c r="D2">
@@ -493,7 +526,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>0.78561538714172796</v>
       </c>
       <c r="D3">
@@ -504,7 +537,7 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.78627288186660904</v>
       </c>
       <c r="D4">
@@ -518,7 +551,7 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.78747909273584005</v>
       </c>
       <c r="E5" t="s">
@@ -529,22 +562,41 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.78793562369721304</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.78868112532899204</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>0.78868112532899204</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
         <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.78983213976368405</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8A6FEE26-625D-C94B-BA9F-A23E28F40086}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2AD5D49A-D34F-C144-9730-05C735CEAB07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75840" yWindow="3940" windowWidth="22200" windowHeight="9800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="76180" yWindow="6940" windowWidth="22200" windowHeight="9800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -76,18 +76,11 @@
     <t>607-3</t>
   </si>
   <si>
-    <t>607-4</t>
-  </si>
-  <si>
-    <t>ins diff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>add 303`304</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>add 503~505</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ins daydiff</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -489,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
@@ -566,7 +559,7 @@
         <v>0.78793562369721304</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -589,14 +582,6 @@
       </c>
       <c r="E8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2AD5D49A-D34F-C144-9730-05C735CEAB07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{90B25A3A-D36F-3749-A427-53516A6055EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="76180" yWindow="6940" windowWidth="22200" windowHeight="9800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -141,7 +141,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
@@ -485,7 +485,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
@@ -579,6 +579,9 @@
       </c>
       <c r="C8" s="1">
         <v>0.78983213976368405</v>
+      </c>
+      <c r="D8">
+        <v>0.79</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{90B25A3A-D36F-3749-A427-53516A6055EF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{095A451E-A8B1-B44B-A7B1-61377D2344FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76180" yWindow="6940" windowWidth="22200" windowHeight="9800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18240" yWindow="7200" windowWidth="22200" windowHeight="14100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Publis LB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>606-2.csv.gz</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -81,6 +77,10 @@
   </si>
   <si>
     <t>ins daydiff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Public LB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>0.78561538714172796</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
         <v>0.78627288186660904</v>
@@ -537,45 +537,45 @@
         <v>0.78500000000000003</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>0.78747909273584005</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <v>0.78793562369721304</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>0.78868112532899204</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>0.78983213976368405</v>
@@ -584,7 +584,7 @@
         <v>0.79</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{095A451E-A8B1-B44B-A7B1-61377D2344FA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="7200" windowWidth="22200" windowHeight="14100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18240" yWindow="7200" windowWidth="22200" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -81,17 +75,26 @@
   </si>
   <si>
     <t>Public LB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>609-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ins days_weighted_delay</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,12 +142,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,23 +485,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="3" max="3" width="12.83203125" style="1"/>
+    <col min="4" max="4" width="12.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
@@ -511,7 +514,7 @@
       <c r="C2" s="1">
         <v>0.77103741297029604</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.76700000000000002</v>
       </c>
     </row>
@@ -522,7 +525,7 @@
       <c r="C3" s="1">
         <v>0.78561538714172796</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.78300000000000003</v>
       </c>
     </row>
@@ -533,7 +536,7 @@
       <c r="C4" s="1">
         <v>0.78627288186660904</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.78500000000000003</v>
       </c>
       <c r="E4" t="s">
@@ -580,11 +583,22 @@
       <c r="C8" s="1">
         <v>0.78983213976368405</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.79</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.78935601687839296</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>ins days_weighted_delay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>610-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>iroiro</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -92,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
-    <numFmt numFmtId="178" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,6 +126,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,20 +162,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -486,9 +516,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E9"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
@@ -599,6 +631,17 @@
       </c>
       <c r="E9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.79296011828521995</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -628,6 +671,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/Home-Credit-Default-Risk/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2DA3C4EE-57E5-2446-9F75-0B9EA8A9F35F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="7200" windowWidth="22200" windowHeight="14100" tabRatio="500"/>
+    <workbookView xWindow="24320" yWindow="8240" windowWidth="18100" windowHeight="11400" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="late sub" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>525-1.csv.gz</t>
     <phoneticPr fontId="1"/>
@@ -91,18 +98,34 @@
   </si>
   <si>
     <t>iroiro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Private</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB804</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LB804 without f702</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.000000000;[Red]\-#,##0.000000000"/>
     <numFmt numFmtId="177" formatCode="#,##0.000;[Red]\-#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,7 +200,7 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+    <cellStyle name="桁区切り [0]" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
@@ -515,14 +538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="220" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="12.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.83203125" style="1"/>
     <col min="4" max="4" width="12.83203125" style="2"/>
@@ -678,4 +701,77 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182079B4-A655-0846-9FD6-CE9381B6E567}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>0.80406</v>
+      </c>
+      <c r="D3">
+        <v>0.79737000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.80101</v>
+      </c>
+      <c r="D4">
+        <v>0.79673000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>